--- a/auto.xlsx
+++ b/auto.xlsx
@@ -7,11 +7,10 @@
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="created_sheet_20230830_125750" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="created_sheet_20230830_131136" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="created_sheet_20230830_140614" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -426,10 +425,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -445,6 +444,36 @@
           <t>test 2</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>test 3</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>test 4</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>test 1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>test 2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>test 3</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>test 4</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -453,6 +482,28 @@
       <c r="B2" t="n">
         <v>20</v>
       </c>
+      <c r="C2">
+        <f>SUM(A2,B2)</f>
+        <v/>
+      </c>
+      <c r="D2" t="n">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <f>SUM(H2,J2)</f>
+        <v/>
+      </c>
+      <c r="H2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>th</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -461,6 +512,28 @@
       <c r="B3" t="n">
         <v>14</v>
       </c>
+      <c r="C3">
+        <f>SUM(A3,B3)</f>
+        <v/>
+      </c>
+      <c r="D3" t="n">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <f>SUM(H3,J3)</f>
+        <v/>
+      </c>
+      <c r="H3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -469,6 +542,28 @@
       <c r="B4" t="n">
         <v>69</v>
       </c>
+      <c r="C4">
+        <f>SUM(A4,B4)</f>
+        <v/>
+      </c>
+      <c r="D4" t="n">
+        <v>39</v>
+      </c>
+      <c r="G4">
+        <f>SUM(H4,J4)</f>
+        <v/>
+      </c>
+      <c r="H4" t="n">
+        <v>69</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>asasa</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -476,6 +571,28 @@
       </c>
       <c r="B5" t="n">
         <v>74</v>
+      </c>
+      <c r="C5">
+        <f>SUM(A5,B5)</f>
+        <v/>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <f>SUM(H5,J5)</f>
+        <v/>
+      </c>
+      <c r="H5" t="n">
+        <v>74</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>asfd</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -489,7 +606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,6 +625,36 @@
           <t>test 2</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>test 3</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>test 4</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>test 1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>test 2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>test 3</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>test 4</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -516,6 +663,20 @@
       <c r="B2" t="n">
         <v>20</v>
       </c>
+      <c r="D2" t="n">
+        <v>14</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>th</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -524,6 +685,20 @@
       <c r="B3" t="n">
         <v>14</v>
       </c>
+      <c r="D3" t="n">
+        <v>28</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -532,6 +707,20 @@
       <c r="B4" t="n">
         <v>69</v>
       </c>
+      <c r="D4" t="n">
+        <v>39</v>
+      </c>
+      <c r="H4" t="n">
+        <v>69</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>asasa</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -540,68 +729,19 @@
       <c r="B5" t="n">
         <v>74</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>test 1</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>test 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+      <c r="D5" t="n">
         <v>10</v>
       </c>
-      <c r="B2" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>15</v>
-      </c>
-      <c r="B3" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>25</v>
-      </c>
-      <c r="B4" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>35</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="H5" t="n">
         <v>74</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>asfd</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/auto.xlsx
+++ b/auto.xlsx
@@ -8,6 +8,8 @@
   <sheets>
     <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="created_sheet_20230830_140614" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="created_sheet_20230901_143340" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="created_sheet_20230901_144622" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -747,4 +749,314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>test 1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>test 2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>test 3</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>test 4</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>test 1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>test 2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>test 3</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>test 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>th</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B4" t="n">
+        <v>69</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39</v>
+      </c>
+      <c r="H4" t="n">
+        <v>69</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>asasa</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B5" t="n">
+        <v>74</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" t="n">
+        <v>74</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>asfd</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>test 1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>test 2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>test 3</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>test 4</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>test 1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>test 2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>test 3</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>test 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>th</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B4" t="n">
+        <v>69</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39</v>
+      </c>
+      <c r="H4" t="n">
+        <v>69</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>asasa</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B5" t="n">
+        <v>74</v>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" t="n">
+        <v>74</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>asfd</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/auto.xlsx
+++ b/auto.xlsx
@@ -3,13 +3,18 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5760" yWindow="1404" windowWidth="17280" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="5" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="created_sheet_20230830_140614" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="created_sheet_20230901_143340" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="created_sheet_20230901_144622" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="created_sheet_20230902_215814" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="created_sheet_20230903_115434" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="created_sheet_20230903_123830" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="created_sheet_20230903_124016" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="created_sheet_20230903_125056" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -429,7 +434,7 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -614,7 +619,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -763,7 +768,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -912,6 +917,856 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>test 1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>test 2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>test 3</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>test 4</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>test 1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>test 2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>test 3</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>test 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>th</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B4" t="n">
+        <v>69</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39</v>
+      </c>
+      <c r="H4" t="n">
+        <v>69</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>asasa</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B5" t="n">
+        <v>74</v>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" t="n">
+        <v>74</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>asfd</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>test 1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>test 2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>test 3</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>test 4</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>test 1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>test 2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>test 3</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>test 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>th</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B4" t="n">
+        <v>69</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39</v>
+      </c>
+      <c r="H4" t="n">
+        <v>69</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>asasa</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B5" t="n">
+        <v>74</v>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" t="n">
+        <v>74</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>asfd</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>test 1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>test 2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>test 3</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>test 4</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>test 1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>test 2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>test 3</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>test 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>th</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39</v>
+      </c>
+      <c r="H4" t="n">
+        <v>69</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>asasa</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" t="n">
+        <v>74</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>asfd</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>test 1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>test 2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>test 3</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>test 4</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>test 1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>test 2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>test 3</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>test 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>th</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39</v>
+      </c>
+      <c r="H4" t="n">
+        <v>69</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>asasa</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" t="n">
+        <v>74</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>asfd</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>pp</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>test 1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>test 2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>test 3</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>test 4</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>test 1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>test 2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>test 3</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>test 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>th</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39</v>
+      </c>
+      <c r="H4" t="n">
+        <v>69</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>asasa</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" t="n">
+        <v>74</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>asfd</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>pp</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -960,8 +1815,10 @@
       <c r="A2" t="n">
         <v>10</v>
       </c>
-      <c r="B2" t="n">
-        <v>20</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>10</v>
@@ -977,16 +1834,20 @@
           <t>th</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v>14</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>15</v>
       </c>
-      <c r="B3" t="n">
-        <v>14</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>15</v>
@@ -1002,16 +1863,20 @@
           <t>sasa</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v>28</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>25</v>
       </c>
-      <c r="B4" t="n">
-        <v>69</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>25</v>
@@ -1027,16 +1892,20 @@
           <t>asasa</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v>39</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>35</v>
       </c>
-      <c r="B5" t="n">
-        <v>74</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>35</v>
@@ -1052,10 +1921,17 @@
           <t>asfd</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v>10</v>
-      </c>
-    </row>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>pp</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
